--- a/data/spirit_ashes.xlsx
+++ b/data/spirit_ashes.xlsx
@@ -19,6 +19,9 @@
     <t>info</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>fp_cost</t>
   </si>
   <si>
@@ -31,19 +34,10 @@
     <t>image_url</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>Albinauric Ashes</t>
   </si>
   <si>
     <t>Summons two Albinauric spirits</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698bf108l0i2rc1o532xfaytwzl.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -52,13 +46,16 @@
 Both are second-generation Albinaurics, with dumpy heads that resemble those of frogs.</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698bf108l0i2rc1o532xfaytwzl.png</t>
+  </si>
+  <si>
     <t>Ancestral Follower Ashes</t>
   </si>
   <si>
     <t>Summons ancestral follower spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c5e05fl0i2rc2ni1ozwjqbtm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -66,13 +63,13 @@
 A spirit of the horned folk who eschew letters and metalworking. Brawny, and versed in distinctive spiritual arts, this particular tribesman wields a heavy bow.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c5e05fl0i2rc2ni1ozwjqbtm.png</t>
+  </si>
+  <si>
     <t>Ancient Dragon Knight Kristoff</t>
   </si>
   <si>
     <t>Summons spirit of Ancient Dragon Knight Kristoff</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f84b01l0i2rhicosayr42hna.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -82,13 +79,13 @@
 After the First Defense of Leyndell, Kristoff earned the hero's honor of Erdtree Burial for the feat of capturing Godefroy the Grafted.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f84b01l0i2rhicosayr42hna.png</t>
+  </si>
+  <si>
     <t>Archer Ashes</t>
   </si>
   <si>
     <t>Summons three archer spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69857498l0i2rc3b57qyly3sydo.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -97,13 +94,13 @@
 Though their methods are somewhat crude, they work well as a squadron, firing a hail of arrows in unison at the sound of a war cry.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69857498l0i2rc3b57qyly3sydo.png</t>
+  </si>
+  <si>
     <t>Avionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two avionette soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69962123l0i2rc3wxphqaa3codo.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -113,13 +110,13 @@
 Can sometimes malfunction when damaged.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69962123l0i2rc3wxphqaa3codo.png</t>
+  </si>
+  <si>
     <t>Azula Beastman Ashes</t>
   </si>
   <si>
     <t>Summons two Azula beastman spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c1b5ebl0i2rhm76pm5x3fs02f.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -127,13 +124,13 @@
 Spirits of beastmen from doomed Farum Azula, the slowly crumbling ruins in the skies. These ruins are said to be the remains of a giant mausoleum enshrining an ancient dragon, guarded by chosen beastmen who wield weapons clad in lightning.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c1b5ebl0i2rhm76pm5x3fs02f.png</t>
+  </si>
+  <si>
     <t>Banished Knight Engvall</t>
   </si>
   <si>
     <t>Summons spirit of Banished Knight Engvall</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bc440el0i2rho6izbci2my7fi.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -141,13 +138,13 @@
 One of the two knights dubbed the Wings of the Storm. Despite his banishment, he rejected the invitation of the Grace-Given Lord, instead keeping watch over a masterless castle for many years, gaining renown as a hero of the fringes.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bc440el0i2rho6izbci2my7fi.png</t>
+  </si>
+  <si>
     <t>Banished Knight Oleg</t>
   </si>
   <si>
     <t>Summons spirit of Banished Knight Oleg</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ac4bd0l0i2rc618tsrggfp3kh.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -155,13 +152,13 @@
 One of the two knights known as the Wings of the Storm. After his banishment, he attracted the notice of the Grace-Given Lord and later, having slain a hundred traitors as the Lord's hand, Oleg earned the hero's honor of Erdtree Burial.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ac4bd0l0i2rc618tsrggfp3kh.png</t>
+  </si>
+  <si>
     <t>Battlemage Hugues</t>
   </si>
   <si>
     <t>Summons spirit of Battlemage Hugues</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698e5162l0i2rhsg27fvvcchhh8.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -170,13 +167,13 @@
 Haima scholars seek to quell conflict with cannon fire and the gavel, but Hugues developed a longing for it.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698e5162l0i2rhsg27fvvcchhh8.png</t>
+  </si>
+  <si>
     <t>Black Knife Tiche</t>
   </si>
   <si>
     <t>Summons spirit of Black Knife Tiche</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6970a4e0l0i2rcxy5mhe8469uy7.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -184,13 +181,13 @@
 Tiche was one of the assassins who, on the night of the plot, imbued her black knife with the Rune of Death and slew Godwyn the Golden. She was the daughter of the Black Knife Ringleader, Alecto, and was killed protecting her mother during their flight from the royal capital.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6970a4e0l0i2rcxy5mhe8469uy7.png</t>
+  </si>
+  <si>
     <t>Blackflame Monk Amon</t>
   </si>
   <si>
     <t>Summons spirit of Blackflame Monk Amon</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69de3343l0i2ri02qpv643ynu3.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -199,13 +196,13 @@
 Or perhaps it is better said that he fled from the Giants' Flame—out of cowardice.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69de3343l0i2ri02qpv643ynu3.png</t>
+  </si>
+  <si>
     <t>Bloodhound Knight Floh</t>
   </si>
   <si>
     <t>Summons spirit of Bloodhound Knight Floh</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c882dal0i2rgmqlt6en3tjlqm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -214,13 +211,13 @@
 Floh vowed that there was only one lord he would serve: a true king. And so, the Rabid Stray never found a master.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c882dal0i2rgmqlt6en3tjlqm.png</t>
+  </si>
+  <si>
     <t>Clayman Ashes</t>
   </si>
   <si>
     <t>Summons two clayman spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69cb98c7l0i2ri0lmguxpofwvp.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -229,13 +226,13 @@
 The warped remains of priests who searched for revelation in service of the ancient dynasty, they employ two sorceries that produce smaller and larger bubbles.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69cb98c7l0i2ri0lmguxpofwvp.png</t>
+  </si>
+  <si>
     <t>Cleanrot Knight Finlay</t>
   </si>
   <si>
     <t>Summons spirit of Cleanrot Knight Finlay</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f699877aal0i2rifkvslfle9b9ha.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -243,13 +240,13 @@
 Finlay was one of the few survivors of the Battle of Aeonia, who in an unimaginable act of heroism carried the slumbering demigod Malenia all the way back to the Haligtree. She managed the feat alone, fending off all manner of foes along the way.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f699877aal0i2rifkvslfle9b9ha.png</t>
+  </si>
+  <si>
     <t>Crystalian Ashes</t>
   </si>
   <si>
     <t>Summons Crystalian spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c8b5l0i2ri969yh285riaw5.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -257,13 +254,13 @@
 Spirit that wields round crystalline blades, both big and small. Its sturdy body, itself hewn from crystal long ago, is hard enough to blunt its opponent's blades, but blows from bludgeoning weapons can shatter it easily.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c8b5l0i2ri969yh285riaw5.png</t>
+  </si>
+  <si>
     <t>Demi-Human Ashes</t>
   </si>
   <si>
     <t>Summons five demi-human spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69beb243l0i2rcptdnjy0wl2nxj.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -271,13 +268,13 @@
 Spirits of demi-humans that are small in stature, but have a violent, brutish disposition. Though they seem somewhat intelligent, when night falls, their blood boils and they become feral.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69beb243l0i2rcptdnjy0wl2nxj.png</t>
+  </si>
+  <si>
     <t>Depraved Perfumer Carmaan</t>
   </si>
   <si>
     <t>Summons spirit of Depraved Perfumer Carmaan</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c971e5l0i2ricvamdlfi9hd4e.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -285,13 +282,13 @@
 Depraved perfumers practice their art for themselves alone. Carmaan was a notably formidable perfumer whose strength rivaled that of heroes, and it is said that he was in search of a secret physick of revivification.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c971e5l0i2ricvamdlfi9hd4e.png</t>
+  </si>
+  <si>
     <t>Dolores the Sleeping Arrow Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Dolores the Sleeping Arrow</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f7b11fl0i2rix87eagayvg5or.png</t>
   </si>
   <si>
     <t>One of Seluvis's favorite puppets.
@@ -300,13 +297,13 @@
 Dolores once belonged to the Roundtable Hold, where she was both a critic and a friend of Gideon the All-Knowing. It was because of her that he and Seluvis went their separate ways.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f7b11fl0i2rix87eagayvg5or.png</t>
+  </si>
+  <si>
     <t>Dung Eater Puppet</t>
   </si>
   <si>
     <t>Summons spirit of the Dung Eater</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f699d3e8fl0i2rijbhqroryzjjtm.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -317,13 +314,13 @@
 How hideous and sinister this puppet is, and yet, its utter despair invites one to care for it.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f699d3e8fl0i2rijbhqroryzjjtm.png</t>
+  </si>
+  <si>
     <t>Fanged Imp Ashes</t>
   </si>
   <si>
     <t>Summons two fanged imp spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6984b305l0i2rcqq95m4bqpnb0t.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -332,13 +329,13 @@
 The two imps seem fond of each other's company.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6984b305l0i2rcqq95m4bqpnb0t.png</t>
+  </si>
+  <si>
     <t>Finger Maiden Therolina Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Finger Maiden Therolina</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69776c1dl0i2rcsqvsjrwpwre1p.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -347,13 +344,13 @@
 A Maiden without a Tarnished. A Tarnished without a Maiden. And yet no guide to bring them together.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69776c1dl0i2rcsqvsjrwpwre1p.png</t>
+  </si>
+  <si>
     <t>Fire Monk Ashes</t>
   </si>
   <si>
     <t>Summons Fire Monk spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bd2cd3l0i2riv19z68urypaam.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -362,13 +359,13 @@
 Though he was charged with keeping watch over the Flame, after many years of solemn duty, he has succumbed to its allure.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bd2cd3l0i2riv19z68urypaam.png</t>
+  </si>
+  <si>
     <t>Giant Rat Ashes</t>
   </si>
   <si>
     <t>Summons three giant rat spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f4e16bl0i2rctgy4eba6y1dq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -378,13 +375,13 @@
 Even as spirits, these vermin seem to multiply endlessly. Enhancing these ashes can increase their numbers.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f4e16bl0i2rctgy4eba6y1dq.png</t>
+  </si>
+  <si>
     <t>Glintstone Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons glintstone sorcerer spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69e84114l0i2rdbhn73i6cz73tm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -393,13 +390,13 @@
 A scholar of the Olivinus Conspectus, who has mastered the use of the Glintstone Stars sorcery.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69e84114l0i2rdbhn73i6cz73tm.png</t>
+  </si>
+  <si>
     <t>Godrick Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Godrick soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69d490f4l0i2rdevcj5cyogvhec.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -408,13 +405,13 @@
 The soldiers who serve Godrick the Grafted are what remains of the army that fled the royal capital of the Erdtree.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69d490f4l0i2rdevcj5cyogvhec.png</t>
+  </si>
+  <si>
     <t>Greatshield Soldier Ashes</t>
   </si>
   <si>
     <t>Summons five greatshield soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f56843l0i2rdofm9tav197rzq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -423,13 +420,13 @@
 Though their methods are somewhat crude, they work well as a squadron, and will attract the attention of enemies or lob ghostflame from the rearguard.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f56843l0i2rdofm9tav197rzq.png</t>
+  </si>
+  <si>
     <t>Haligtree Soldier Ashes</t>
   </si>
   <si>
     <t>Summons four Haligtree soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b464d7l0i2riyiocraa9z2guc.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -439,13 +436,13 @@
 May the flash of our deaths guide Miquella's return.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b464d7l0i2riyiocraa9z2guc.png</t>
+  </si>
+  <si>
     <t>Jarwight Puppet</t>
   </si>
   <si>
     <t>Summons Jarwight spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b77adbl0i2rdg8c9ycaad36y5.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -455,13 +452,13 @@
 "You are not yet ready to join the warriors inside. No, you must apply yourself! Better yourself, and one day I will return for you."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b77adbl0i2rdg8c9ycaad36y5.png</t>
+  </si>
+  <si>
     <t>Kaiden Sellsword Ashes</t>
   </si>
   <si>
     <t>Summons Kaiden sellsword spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69dc6c64l0i2rdkqrx6suz8t4k.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -470,13 +467,13 @@
 The sellswords of Kaiden made their prowess known on countless battlefields.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69dc6c64l0i2rdkqrx6suz8t4k.png</t>
+  </si>
+  <si>
     <t>Kindred of Rot Ashes</t>
   </si>
   <si>
     <t>Summons Kindred of Rot spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a4c036l0i2rhgqvv4avdj310g.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -486,13 +483,13 @@
 The Kindred of Rot are the servants of the Goddess of Rot—servants that have been forsaken.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a4c036l0i2rhgqvv4avdj310g.png</t>
+  </si>
+  <si>
     <t>Land Squirt Ashes</t>
   </si>
   <si>
     <t>Summons three land squirt spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69be5a2fl0i2rh6qmlpa2s0tpao.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -502,13 +499,13 @@
 The firm, fleshy tubes of the creatures remain rooted to the spot, spraying poisonous liquid over their surroundings.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69be5a2fl0i2rh6qmlpa2s0tpao.png</t>
+  </si>
+  <si>
     <t>Latenna the Albinauric</t>
   </si>
   <si>
     <t>Summons spirit of Latenna the Albinauric</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6978cd87l0i2rgbupusbrmdqmhl.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -517,13 +514,13 @@
 Latenna was renowned as a deft magic archer. But having lost her beloved wolf companion, Lobo, she cannot move from the place where she was summoned.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6978cd87l0i2rgbupusbrmdqmhl.png</t>
+  </si>
+  <si>
     <t>Leyndell Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Leyndell soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69d471b4l0i2rgvwohtrk19bpy.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -532,13 +529,13 @@
 The soldiers of Leyndell fight their battles defensively. During the Shattering, they were the ramparts that fortified the royal capital.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69d471b4l0i2rgvwohtrk19bpy.png</t>
+  </si>
+  <si>
     <t>Lhutel the Headless</t>
   </si>
   <si>
     <t>Summons spirit of Lhutel the Headless</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f696cd1c3l0i2rdwfiwxjblacnad.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -548,13 +545,13 @@
 Lhutel sacrificed her life so that in Death she could continue to protect a soulless demigod until their revival, earning her the hero's honor of Erdtree Burial.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f696cd1c3l0i2rdwfiwxjblacnad.png</t>
+  </si>
+  <si>
     <t>Lone Wolf Ashes</t>
   </si>
   <si>
     <t>Summons three lone wolf spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69718dccl0i2rebxuwsfendz6e.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -563,13 +560,13 @@
 The wolf spirits overwhelm enemies with their agility, aiding the summoner in combat.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69718dccl0i2rebxuwsfendz6e.png</t>
+  </si>
+  <si>
     <t>Mad Pumpkin Head Ashes</t>
   </si>
   <si>
     <t>Summons mad pumpkin head spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698ab785l0i2re2gfjekyqwlm8j.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -579,13 +576,13 @@
 This mad soldier is all that is left of a broken gladiator.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698ab785l0i2re2gfjekyqwlm8j.png</t>
+  </si>
+  <si>
     <t>Man-Serpent Ashes</t>
   </si>
   <si>
     <t>Summons man-serpent spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bda110l0i2rj2fpyaeegsbkdn.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -594,13 +591,13 @@
 It is said that long ago, the elder serpent that dwelled on Mt. Gelmir devoured a demigod, and the birth of the man-serpents followed.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bda110l0i2rj2fpyaeegsbkdn.png</t>
+  </si>
+  <si>
     <t>Marionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two marionette soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c24d62l0i2re6lrc9a3zopybr.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -610,13 +607,13 @@
 On the verge of falling apart, they are ill-disciplined and attack without warning.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c24d62l0i2re6lrc9a3zopybr.png</t>
+  </si>
+  <si>
     <t>Mausoleum Soldier Ashes</t>
   </si>
   <si>
     <t>Summons five mausoleum soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ab4977l0i2rj50c2ffeu71unu.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -625,13 +622,13 @@
 The mausoleum is where the bodies of soulless demigods are lain to rest, and these soldiers followed their masters into Death by severing their own heads from their bodies.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ab4977l0i2rj50c2ffeu71unu.png</t>
+  </si>
+  <si>
     <t>Mimic Tear Ashes</t>
   </si>
   <si>
     <t>Summons mimic tear spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b5bc8dl0i2redg5p2ojmuksvu.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -641,13 +638,13 @@
 Mimic tears are the result of an attempt by the Eternal City to forge a lord.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b5bc8dl0i2redg5p2ojmuksvu.png</t>
+  </si>
+  <si>
     <t>Miranda Sprout Ashes</t>
   </si>
   <si>
     <t>Summons five miranda sprout spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c6b7d1l0i2rgxuyvekun2pas.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -657,13 +654,13 @@
 Vulnerable to fire—do take care of the little darlings.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c6b7d1l0i2rgxuyvekun2pas.png</t>
+  </si>
+  <si>
     <t>Nepheli Loux Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Nepheli Loux</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69abc3b9l0i2rjr6m5bbrtexdp.png</t>
   </si>
   <si>
     <t>One of Seluvis's favorite puppets.
@@ -672,13 +669,13 @@
 A diamond in the rough, deserving of special care lest its potential be squandered. Nepheli Loux truly was a warrior.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69abc3b9l0i2rjr6m5bbrtexdp.png</t>
+  </si>
+  <si>
     <t>Nightmaiden &amp; Swordstress Puppets</t>
   </si>
   <si>
     <t>Summons nightmaiden &amp; swordstress spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a3cc86l0i2rej3i1ddya1oiq9.png</t>
   </si>
   <si>
     <t>An old puppet crafted in the Eternal City.
@@ -686,13 +683,13 @@
 These sisters, members of a cold-blooded race who wield flowing weapons, became puppets of their own volition.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a3cc86l0i2rej3i1ddya1oiq9.png</t>
+  </si>
+  <si>
     <t>Noble Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons noble sorcerer spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a2890el0i2renh0xht1xcqkfe.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -701,13 +698,13 @@
 His talents were insufficient to be worthy of donning the stone crown, however, and he is only capable of using the most rudimentary sorcery.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a2890el0i2renh0xht1xcqkfe.png</t>
+  </si>
+  <si>
     <t>Nomad Ashes</t>
   </si>
   <si>
     <t>Summons nomad spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69cba9a9l0i2reprf9ja1xfjpg.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -715,13 +712,13 @@
 A member of a tribe that was entombed in the earth so as to bury the maddening disease that followed them. Able to emit the terrible flame of frenzy from his eyes, but has low HP and is frail, unable to take much in the way of punishment.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69cba9a9l0i2reprf9ja1xfjpg.png</t>
+  </si>
+  <si>
     <t>Omenkiller Rollo</t>
   </si>
   <si>
     <t>Summons spirit of Omenkiller Rollo</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b8b45cl0i2revtxehcf0mla2c.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -730,13 +727,13 @@
 Once a famous perfumer, Rollo imbibed a physick to rid himself of emotion, thus enabling him to enact his nightmarish labor, hunting the Omen.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b8b45cl0i2revtxehcf0mla2c.png</t>
+  </si>
+  <si>
     <t>Oracle Envoy Ashes</t>
   </si>
   <si>
     <t>Summons four Oracle Envoy spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69663925l0i2rjhexap3mp9otq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -744,13 +741,13 @@
 Spirits of a monstrous band of musicians who employ sacred arts. It is said that when Oracle Envoys appear, playing their pipes, they do so to herald the arrival of a new god, or a new age.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69663925l0i2rjhexap3mp9otq.png</t>
+  </si>
+  <si>
     <t>Page Ashes</t>
   </si>
   <si>
     <t>Summons page spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f00316l0i2rf7rq3l4lzz67b.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -759,13 +756,13 @@
 One becomes a page merely by accident of being born into obscurity; nothing is asked of ability, talent, or volition.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f00316l0i2rf7rq3l4lzz67b.png</t>
+  </si>
+  <si>
     <t>Perfumer Tricia</t>
   </si>
   <si>
     <t>Summons spirit of Perfumer Tricia</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b927b9l0i2rgoqeiknjm21fba.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -774,13 +771,13 @@
 A tale akin to the origins of the deathbed companions.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b927b9l0i2rgoqeiknjm21fba.png</t>
+  </si>
+  <si>
     <t>Putrid Corpse Ashes</t>
   </si>
   <si>
     <t>Summons four putrid corpse spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b254ffl0i2rjlmj6dtmbbwve.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -788,13 +785,13 @@
 These spirits appear some distance from the summoner. Though their movements are dull and confused, their low moans make them effective at drawing the attention of enemies. True death does not come easily for them.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b254ffl0i2rjlmj6dtmbbwve.png</t>
+  </si>
+  <si>
     <t>Radahn Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Radahn soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ce3ebfl0i2rjo4bbtu73ia5tu.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -803,13 +800,13 @@
 General Radahn's soldiers were all reputed to be masterful warriors, and it was popularly said that the Redmanes knew no weakness.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ce3ebfl0i2rjo4bbtu73ia5tu.png</t>
+  </si>
+  <si>
     <t>Raya Lucaria Soldier Ashes</t>
   </si>
   <si>
     <t>Summons three Raya Lucaria soldier spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69adba9el0i2rf0sm2c9jcpc2m.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -818,13 +815,13 @@
 The soldiers of Raya Lucaria were also known as the Cuckoos. They were given free rein by the academy to wage war as they pleased, and they were infamous for their rapacious ways.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69adba9el0i2rf0sm2c9jcpc2m.png</t>
+  </si>
+  <si>
     <t>Redmane Knight Ogha</t>
   </si>
   <si>
     <t>Summons spirit of Redmane Knight Ogha</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69eb8a3dl0i2rjqdm5kzaa1sd9k.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -835,13 +832,13 @@
 May use a rain of gravitational arrows in response to a war cry, but only once.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69eb8a3dl0i2rjqdm5kzaa1sd9k.png</t>
+  </si>
+  <si>
     <t>Rotten Stray Ashes</t>
   </si>
   <si>
     <t>Summons rotten stray spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69732716l0i2rg3m2el64hvaq0m.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -850,13 +847,13 @@
 Though it is only a small creature, it is as violent as it is nimble, and its fangs fester with poisonous rot.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69732716l0i2rg3m2el64hvaq0m.png</t>
+  </si>
+  <si>
     <t>Skeletal Bandit Ashes</t>
   </si>
   <si>
     <t>Summons skeletal bandit spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c032l0i2rfjqjylurrvvo1l.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -865,13 +862,13 @@
 After the night of the plot, Deathroot appeared in the Lands Between, and Those Who Live in Death soon followed.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c032l0i2rfjqjylurrvvo1l.png</t>
+  </si>
+  <si>
     <t>Skeletal Militiaman Ashes</t>
   </si>
   <si>
     <t>Summons two skeletal militiaman spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a1eaddl0i2rfd40p6zlanz41sf.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -880,13 +877,13 @@
 This is the grotesque fate of those who come into contact with Deathroot.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a1eaddl0i2rfd40p6zlanz41sf.png</t>
+  </si>
+  <si>
     <t>Soldjars of Fortune Ashes</t>
   </si>
   <si>
     <t>Summons three little living jar spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ddaf0fl0i2rjyrykqzpcxfre.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -897,13 +894,13 @@
 "Tell the others—tell them how brightly a fire jar burns."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ddaf0fl0i2rjyrykqzpcxfre.png</t>
+  </si>
+  <si>
     <t>Spirit Jellyfish Ashes</t>
   </si>
   <si>
     <t>Summons spirit jellyfish</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f697066c0l0i2rfjc7ykblsby5ox.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -913,13 +910,13 @@
 It seems her name is Aurelia.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f697066c0l0i2rfjc7ykblsby5ox.png</t>
+  </si>
+  <si>
     <t>Stormhawk Deenh</t>
   </si>
   <si>
     <t>Summons spirit of Stormhawk Deenh</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ecd388l0i2rfmox0cljjuuri.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -927,13 +924,13 @@
 Spirit of a fierce hawk that faithfully rendered lifelong service to the old king of Stormveil long ago, when the true storm raged. Its cries embolden its fellows in battle, and the tempestuous winds that encircle it shred through foes.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ecd388l0i2rfmox0cljjuuri.png</t>
+  </si>
+  <si>
     <t>Twinsage Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons Twinsage sorcerer spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bf3136l0i2rfs0407qepaxpho.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -942,13 +939,13 @@
 Those who study the Twinsage Conspectus are the academy's elite, capable of mastering the Glintstone Cometshard and Crystal Burst sorceries.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bf3136l0i2rfs0407qepaxpho.png</t>
+  </si>
+  <si>
     <t>Vulgar Militia Ashes</t>
   </si>
   <si>
     <t>Summons three vulgar militia spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6987842cl0i2rh0v17nw2hyrdslh.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -957,13 +954,13 @@
 In the Lands Between, the small were scorned, and so they formed their vulgar militia as a means to make a living, albeit in ignominy.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6987842cl0i2rh0v17nw2hyrdslh.png</t>
+  </si>
+  <si>
     <t>Wandering Noble Ashes</t>
   </si>
   <si>
     <t>Summons five wandering noble spirits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69871c91l0i2rfwnjft8senytx.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -971,13 +968,13 @@
 The spirits of nobles who, after death, now wander the Lands Between. Surely they were in search of something once—but whatever it was has long been forgotten.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69871c91l0i2rfwnjft8senytx.png</t>
+  </si>
+  <si>
     <t>Warhawk Ashes</t>
   </si>
   <si>
     <t>Summons warhawk spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69e64c4al0i2rg6ksmiwxmcgad.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -987,18 +984,21 @@
 The storm is a warhawk's cradle.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69e64c4al0i2rg6ksmiwxmcgad.png</t>
+  </si>
+  <si>
     <t>Winged Misbegotten Ashes</t>
   </si>
   <si>
     <t>Summons winged misbegotten spirit</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ba4ffal0i2rgd5rdlvueh3v0q.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
 Use to summon the spirit of a winged misbegotten.
 A spirit with the aspect of wings which takes flight to loose arrows from its bow. The misbegotten are held to be a punishment for making contact with the Crucible, and from birth they are treated as slaves, or worse.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ba4ffal0i2rgd5rdlvueh3v0q.png</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1281,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1295,19 +1295,19 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
         <v>53.0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
         <v>922.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1318,19 +1318,19 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
         <v>63.0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
         <v>1070.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1341,19 +1341,19 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
         <v>108.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
         <v>1440.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1364,19 +1364,19 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
         <v>57.0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>454.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1387,19 +1387,19 @@
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
         <v>67.0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
         <v>646.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
         <v>102.0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
         <v>646.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1433,19 +1433,19 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
         <v>100.0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>1238.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1456,19 +1456,19 @@
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
         <v>100.0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
         <v>1238.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1479,19 +1479,19 @@
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
         <v>122.0</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
         <v>1165.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1502,19 +1502,19 @@
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1">
         <v>132.0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
         <v>876.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1525,19 +1525,19 @@
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
         <v>115.0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
         <v>1158.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1548,19 +1548,19 @@
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1">
         <v>95.0</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
         <v>657.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1571,19 +1571,19 @@
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
         <v>77.0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
         <v>501.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1594,19 +1594,19 @@
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1">
         <v>127.0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
         <v>876.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1617,19 +1617,19 @@
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1">
         <v>101.0</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
         <v>933.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1640,19 +1640,19 @@
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
         <v>69.0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
         <v>2640.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1663,19 +1663,19 @@
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
         <v>124.0</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
         <v>973.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1686,19 +1686,19 @@
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1">
         <v>87.0</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
         <v>1037.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1709,19 +1709,19 @@
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
         <v>118.0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
         <v>1037.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1">
         <v>50.0</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
         <v>449.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1755,19 +1755,19 @@
       <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1">
         <v>82.0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
         <v>1037.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1778,19 +1778,19 @@
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1">
         <v>85.0</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
         <v>1306.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
         <v>429.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1824,19 +1824,19 @@
       <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1">
         <v>49.0</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
         <v>781.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1847,19 +1847,19 @@
       <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1">
         <v>54.0</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
         <v>710.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1870,19 +1870,19 @@
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1">
         <v>74.0</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
         <v>390.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1893,19 +1893,19 @@
       <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="1">
         <v>66.0</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
         <v>646.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1916,19 +1916,19 @@
       <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1">
         <v>60.0</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>1037.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1939,19 +1939,19 @@
       <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="1">
         <v>88.0</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
         <v>1037.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1962,19 +1962,19 @@
       <c r="B31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1">
         <v>73.0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
         <v>1133.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1986,18 +1986,18 @@
         <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1">
+        <v>130</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
         <v>240.0</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1070.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2008,19 +2008,19 @@
       <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1">
         <v>74.0</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
         <v>390.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2031,19 +2031,19 @@
       <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1">
         <v>64.0</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
         <v>774.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2054,19 +2054,19 @@
       <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1">
         <v>104.0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
         <v>829.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2077,19 +2077,19 @@
       <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="1">
         <v>55.0</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
         <v>500.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2100,19 +2100,19 @@
       <c r="B37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1">
         <v>110.0</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
         <v>1229.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2123,19 +2123,19 @@
       <c r="B38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="1">
         <v>62.0</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3">
         <v>1037.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2146,19 +2146,19 @@
       <c r="B39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1">
         <v>67.0</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
         <v>563.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2169,19 +2169,19 @@
       <c r="B40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="1">
         <v>75.0</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
         <v>326.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2193,18 +2193,18 @@
         <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="1">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1">
         <v>660.0</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1037.0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2216,18 +2216,18 @@
         <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="1">
+        <v>170</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1">
         <v>185.0</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>500.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2238,19 +2238,19 @@
       <c r="B43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="1">
         <v>90.0</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
         <v>1037.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2261,19 +2261,19 @@
       <c r="B44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1">
         <v>97.0</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
         <v>838.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2284,19 +2284,19 @@
       <c r="B45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="1">
         <v>11.0</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
         <v>711.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2307,19 +2307,19 @@
       <c r="B46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="1">
         <v>61.0</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
         <v>359.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2330,19 +2330,19 @@
       <c r="B47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1">
         <v>113.0</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
         <v>1037.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H47" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2353,19 +2353,19 @@
       <c r="B48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="1">
         <v>72.0</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
         <v>570.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2376,19 +2376,19 @@
       <c r="B49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="1">
         <v>81.0</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
         <v>973.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2399,19 +2399,19 @@
       <c r="B50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="1">
         <v>78.0</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
         <v>518.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2422,19 +2422,19 @@
       <c r="B51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="1">
         <v>40.0</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
         <v>1631.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H51" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2445,19 +2445,19 @@
       <c r="B52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="1">
         <v>71.0</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1">
         <v>646.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2468,19 +2468,19 @@
       <c r="B53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="1">
         <v>59.0</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
         <v>582.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2491,19 +2491,19 @@
       <c r="B54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="1">
         <v>106.0</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
         <v>1187.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2514,19 +2514,19 @@
       <c r="B55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="1">
         <v>35.0</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
         <v>781.0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H55" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2537,19 +2537,19 @@
       <c r="B56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="1">
         <v>22.0</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
         <v>563.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H56" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2560,19 +2560,19 @@
       <c r="B57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="1">
         <v>44.0</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
         <v>365.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2584,18 +2584,18 @@
         <v>233</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1">
+        <v>234</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1">
         <v>135.0</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>507.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H58" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2606,19 +2606,19 @@
       <c r="B59" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="1">
         <v>31.0</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
         <v>909.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H59" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2629,19 +2629,19 @@
       <c r="B60" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="1">
         <v>47.0</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
         <v>711.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2652,19 +2652,19 @@
       <c r="B61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="1">
         <v>89.0</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
         <v>852.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H61" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2675,19 +2675,19 @@
       <c r="B62" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="1">
         <v>70.0</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
         <v>518.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H62" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2698,19 +2698,19 @@
       <c r="B63" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="1">
         <v>28.0</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
         <v>429.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H63" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2721,19 +2721,19 @@
       <c r="B64" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="1">
         <v>52.0</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
         <v>993.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H64" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2744,19 +2744,19 @@
       <c r="B65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="1">
         <v>37.0</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
         <v>646.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H65" s="1" t="s">
         <v>263</v>
       </c>
     </row>

--- a/data/spirit_ashes.xlsx
+++ b/data/spirit_ashes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>image_url</t>
-  </si>
-  <si>
-    <t>Albinauric Ashes</t>
   </si>
   <si>
     <t>Summons two Albinauric spirits</t>
@@ -46,13 +43,7 @@
 Both are second-generation Albinaurics, with dumpy heads that resemble those of frogs.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f698bf108l0i2rc1o532xfaytwzl.png</t>
-  </si>
-  <si>
-    <t>Ancestral Follower Ashes</t>
   </si>
   <si>
     <t>Summons ancestral follower spirit</t>
@@ -64,9 +55,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69c5e05fl0i2rc2ni1ozwjqbtm.png</t>
-  </si>
-  <si>
-    <t>Ancient Dragon Knight Kristoff</t>
   </si>
   <si>
     <t>Summons spirit of Ancient Dragon Knight Kristoff</t>
@@ -82,9 +70,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69f84b01l0i2rhicosayr42hna.png</t>
   </si>
   <si>
-    <t>Archer Ashes</t>
-  </si>
-  <si>
     <t>Summons three archer spirits</t>
   </si>
   <si>
@@ -95,9 +80,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69857498l0i2rc3b57qyly3sydo.png</t>
-  </si>
-  <si>
-    <t>Avionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two avionette soldier spirits</t>
@@ -113,9 +95,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69962123l0i2rc3wxphqaa3codo.png</t>
   </si>
   <si>
-    <t>Azula Beastman Ashes</t>
-  </si>
-  <si>
     <t>Summons two Azula beastman spirits</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c1b5ebl0i2rhm76pm5x3fs02f.png</t>
   </si>
   <si>
-    <t>Banished Knight Engvall</t>
-  </si>
-  <si>
     <t>Summons spirit of Banished Knight Engvall</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69bc440el0i2rho6izbci2my7fi.png</t>
   </si>
   <si>
-    <t>Banished Knight Oleg</t>
-  </si>
-  <si>
     <t>Summons spirit of Banished Knight Oleg</t>
   </si>
   <si>
@@ -153,9 +126,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69ac4bd0l0i2rc618tsrggfp3kh.png</t>
-  </si>
-  <si>
-    <t>Battlemage Hugues</t>
   </si>
   <si>
     <t>Summons spirit of Battlemage Hugues</t>
@@ -170,9 +140,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f698e5162l0i2rhsg27fvvcchhh8.png</t>
   </si>
   <si>
-    <t>Black Knife Tiche</t>
-  </si>
-  <si>
     <t>Summons spirit of Black Knife Tiche</t>
   </si>
   <si>
@@ -184,9 +151,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f6970a4e0l0i2rcxy5mhe8469uy7.png</t>
   </si>
   <si>
-    <t>Blackflame Monk Amon</t>
-  </si>
-  <si>
     <t>Summons spirit of Blackflame Monk Amon</t>
   </si>
   <si>
@@ -199,9 +163,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69de3343l0i2ri02qpv643ynu3.png</t>
   </si>
   <si>
-    <t>Bloodhound Knight Floh</t>
-  </si>
-  <si>
     <t>Summons spirit of Bloodhound Knight Floh</t>
   </si>
   <si>
@@ -214,9 +175,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c882dal0i2rgmqlt6en3tjlqm.png</t>
   </si>
   <si>
-    <t>Clayman Ashes</t>
-  </si>
-  <si>
     <t>Summons two clayman spirits</t>
   </si>
   <si>
@@ -229,9 +187,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69cb98c7l0i2ri0lmguxpofwvp.png</t>
   </si>
   <si>
-    <t>Cleanrot Knight Finlay</t>
-  </si>
-  <si>
     <t>Summons spirit of Cleanrot Knight Finlay</t>
   </si>
   <si>
@@ -243,9 +198,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f699877aal0i2rifkvslfle9b9ha.png</t>
   </si>
   <si>
-    <t>Crystalian Ashes</t>
-  </si>
-  <si>
     <t>Summons Crystalian spirit</t>
   </si>
   <si>
@@ -257,9 +209,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c7c8b5l0i2ri969yh285riaw5.png</t>
   </si>
   <si>
-    <t>Demi-Human Ashes</t>
-  </si>
-  <si>
     <t>Summons five demi-human spirits</t>
   </si>
   <si>
@@ -271,9 +220,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69beb243l0i2rcptdnjy0wl2nxj.png</t>
   </si>
   <si>
-    <t>Depraved Perfumer Carmaan</t>
-  </si>
-  <si>
     <t>Summons spirit of Depraved Perfumer Carmaan</t>
   </si>
   <si>
@@ -283,9 +229,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69c971e5l0i2ricvamdlfi9hd4e.png</t>
-  </si>
-  <si>
-    <t>Dolores the Sleeping Arrow Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Dolores the Sleeping Arrow</t>
@@ -298,9 +241,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69f7b11fl0i2rix87eagayvg5or.png</t>
-  </si>
-  <si>
-    <t>Dung Eater Puppet</t>
   </si>
   <si>
     <t>Summons spirit of the Dung Eater</t>
@@ -317,9 +257,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f699d3e8fl0i2rijbhqroryzjjtm.png</t>
   </si>
   <si>
-    <t>Fanged Imp Ashes</t>
-  </si>
-  <si>
     <t>Summons two fanged imp spirits</t>
   </si>
   <si>
@@ -330,9 +267,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f6984b305l0i2rcqq95m4bqpnb0t.png</t>
-  </si>
-  <si>
-    <t>Finger Maiden Therolina Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Finger Maiden Therolina</t>
@@ -347,9 +281,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69776c1dl0i2rcsqvsjrwpwre1p.png</t>
   </si>
   <si>
-    <t>Fire Monk Ashes</t>
-  </si>
-  <si>
     <t>Summons Fire Monk spirit</t>
   </si>
   <si>
@@ -360,9 +291,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69bd2cd3l0i2riv19z68urypaam.png</t>
-  </si>
-  <si>
-    <t>Giant Rat Ashes</t>
   </si>
   <si>
     <t>Summons three giant rat spirits</t>
@@ -378,9 +306,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69f4e16bl0i2rctgy4eba6y1dq.png</t>
   </si>
   <si>
-    <t>Glintstone Sorcerer Ashes</t>
-  </si>
-  <si>
     <t>Summons glintstone sorcerer spirit</t>
   </si>
   <si>
@@ -393,9 +318,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69e84114l0i2rdbhn73i6cz73tm.png</t>
   </si>
   <si>
-    <t>Godrick Soldier Ashes</t>
-  </si>
-  <si>
     <t>Summons two Godrick soldier spirits</t>
   </si>
   <si>
@@ -408,9 +330,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69d490f4l0i2rdevcj5cyogvhec.png</t>
   </si>
   <si>
-    <t>Greatshield Soldier Ashes</t>
-  </si>
-  <si>
     <t>Summons five greatshield soldier spirits</t>
   </si>
   <si>
@@ -421,9 +340,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69f56843l0i2rdofm9tav197rzq.png</t>
-  </si>
-  <si>
-    <t>Haligtree Soldier Ashes</t>
   </si>
   <si>
     <t>Summons four Haligtree soldier spirits</t>
@@ -437,9 +353,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69b464d7l0i2riyiocraa9z2guc.png</t>
-  </si>
-  <si>
-    <t>Jarwight Puppet</t>
   </si>
   <si>
     <t>Summons Jarwight spirit</t>
@@ -455,9 +368,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69b77adbl0i2rdg8c9ycaad36y5.png</t>
   </si>
   <si>
-    <t>Kaiden Sellsword Ashes</t>
-  </si>
-  <si>
     <t>Summons Kaiden sellsword spirit</t>
   </si>
   <si>
@@ -468,9 +378,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69dc6c64l0i2rdkqrx6suz8t4k.png</t>
-  </si>
-  <si>
-    <t>Kindred of Rot Ashes</t>
   </si>
   <si>
     <t>Summons Kindred of Rot spirit</t>
@@ -486,9 +393,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69a4c036l0i2rhgqvv4avdj310g.png</t>
   </si>
   <si>
-    <t>Land Squirt Ashes</t>
-  </si>
-  <si>
     <t>Summons three land squirt spirits</t>
   </si>
   <si>
@@ -502,9 +406,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69be5a2fl0i2rh6qmlpa2s0tpao.png</t>
   </si>
   <si>
-    <t>Latenna the Albinauric</t>
-  </si>
-  <si>
     <t>Summons spirit of Latenna the Albinauric</t>
   </si>
   <si>
@@ -517,9 +418,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f6978cd87l0i2rgbupusbrmdqmhl.png</t>
   </si>
   <si>
-    <t>Leyndell Soldier Ashes</t>
-  </si>
-  <si>
     <t>Summons two Leyndell soldier spirits</t>
   </si>
   <si>
@@ -530,9 +428,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69d471b4l0i2rgvwohtrk19bpy.png</t>
-  </si>
-  <si>
-    <t>Lhutel the Headless</t>
   </si>
   <si>
     <t>Summons spirit of Lhutel the Headless</t>
@@ -548,9 +443,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f696cd1c3l0i2rdwfiwxjblacnad.png</t>
   </si>
   <si>
-    <t>Lone Wolf Ashes</t>
-  </si>
-  <si>
     <t>Summons three lone wolf spirits</t>
   </si>
   <si>
@@ -561,9 +453,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69718dccl0i2rebxuwsfendz6e.png</t>
-  </si>
-  <si>
-    <t>Mad Pumpkin Head Ashes</t>
   </si>
   <si>
     <t>Summons mad pumpkin head spirit</t>
@@ -579,9 +468,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f698ab785l0i2re2gfjekyqwlm8j.png</t>
   </si>
   <si>
-    <t>Man-Serpent Ashes</t>
-  </si>
-  <si>
     <t>Summons man-serpent spirit</t>
   </si>
   <si>
@@ -592,9 +478,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69bda110l0i2rj2fpyaeegsbkdn.png</t>
-  </si>
-  <si>
-    <t>Marionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two marionette soldier spirits</t>
@@ -610,9 +493,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c24d62l0i2re6lrc9a3zopybr.png</t>
   </si>
   <si>
-    <t>Mausoleum Soldier Ashes</t>
-  </si>
-  <si>
     <t>Summons five mausoleum soldier spirits</t>
   </si>
   <si>
@@ -623,9 +503,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69ab4977l0i2rj50c2ffeu71unu.png</t>
-  </si>
-  <si>
-    <t>Mimic Tear Ashes</t>
   </si>
   <si>
     <t>Summons mimic tear spirit</t>
@@ -641,9 +518,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69b5bc8dl0i2redg5p2ojmuksvu.png</t>
   </si>
   <si>
-    <t>Miranda Sprout Ashes</t>
-  </si>
-  <si>
     <t>Summons five miranda sprout spirits</t>
   </si>
   <si>
@@ -657,9 +531,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c6b7d1l0i2rgxuyvekun2pas.png</t>
   </si>
   <si>
-    <t>Nepheli Loux Puppet</t>
-  </si>
-  <si>
     <t>Summons spirit of Nepheli Loux</t>
   </si>
   <si>
@@ -672,9 +543,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69abc3b9l0i2rjr6m5bbrtexdp.png</t>
   </si>
   <si>
-    <t>Nightmaiden &amp; Swordstress Puppets</t>
-  </si>
-  <si>
     <t>Summons nightmaiden &amp; swordstress spirits</t>
   </si>
   <si>
@@ -686,9 +554,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69a3cc86l0i2rej3i1ddya1oiq9.png</t>
   </si>
   <si>
-    <t>Noble Sorcerer Ashes</t>
-  </si>
-  <si>
     <t>Summons noble sorcerer spirit</t>
   </si>
   <si>
@@ -701,9 +566,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69a2890el0i2renh0xht1xcqkfe.png</t>
   </si>
   <si>
-    <t>Nomad Ashes</t>
-  </si>
-  <si>
     <t>Summons nomad spirit</t>
   </si>
   <si>
@@ -713,9 +575,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69cba9a9l0i2reprf9ja1xfjpg.png</t>
-  </si>
-  <si>
-    <t>Omenkiller Rollo</t>
   </si>
   <si>
     <t>Summons spirit of Omenkiller Rollo</t>
@@ -730,9 +589,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69b8b45cl0i2revtxehcf0mla2c.png</t>
   </si>
   <si>
-    <t>Oracle Envoy Ashes</t>
-  </si>
-  <si>
     <t>Summons four Oracle Envoy spirits</t>
   </si>
   <si>
@@ -742,9 +598,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69663925l0i2rjhexap3mp9otq.png</t>
-  </si>
-  <si>
-    <t>Page Ashes</t>
   </si>
   <si>
     <t>Summons page spirit</t>
@@ -759,9 +612,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69f00316l0i2rf7rq3l4lzz67b.png</t>
   </si>
   <si>
-    <t>Perfumer Tricia</t>
-  </si>
-  <si>
     <t>Summons spirit of Perfumer Tricia</t>
   </si>
   <si>
@@ -774,9 +624,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69b927b9l0i2rgoqeiknjm21fba.png</t>
   </si>
   <si>
-    <t>Putrid Corpse Ashes</t>
-  </si>
-  <si>
     <t>Summons four putrid corpse spirits</t>
   </si>
   <si>
@@ -786,9 +633,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69b254ffl0i2rjlmj6dtmbbwve.png</t>
-  </si>
-  <si>
-    <t>Radahn Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Radahn soldier spirits</t>
@@ -803,9 +647,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69ce3ebfl0i2rjo4bbtu73ia5tu.png</t>
   </si>
   <si>
-    <t>Raya Lucaria Soldier Ashes</t>
-  </si>
-  <si>
     <t>Summons three Raya Lucaria soldier spirits</t>
   </si>
   <si>
@@ -816,9 +657,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69adba9el0i2rf0sm2c9jcpc2m.png</t>
-  </si>
-  <si>
-    <t>Redmane Knight Ogha</t>
   </si>
   <si>
     <t>Summons spirit of Redmane Knight Ogha</t>
@@ -835,9 +673,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69eb8a3dl0i2rjqdm5kzaa1sd9k.png</t>
   </si>
   <si>
-    <t>Rotten Stray Ashes</t>
-  </si>
-  <si>
     <t>Summons rotten stray spirit</t>
   </si>
   <si>
@@ -850,9 +685,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69732716l0i2rg3m2el64hvaq0m.png</t>
   </si>
   <si>
-    <t>Skeletal Bandit Ashes</t>
-  </si>
-  <si>
     <t>Summons skeletal bandit spirit</t>
   </si>
   <si>
@@ -865,9 +697,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69c7c032l0i2rfjqjylurrvvo1l.png</t>
   </si>
   <si>
-    <t>Skeletal Militiaman Ashes</t>
-  </si>
-  <si>
     <t>Summons two skeletal militiaman spirits</t>
   </si>
   <si>
@@ -878,9 +707,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69a1eaddl0i2rfd40p6zlanz41sf.png</t>
-  </si>
-  <si>
-    <t>Soldjars of Fortune Ashes</t>
   </si>
   <si>
     <t>Summons three little living jar spirits</t>
@@ -897,9 +723,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69ddaf0fl0i2rjyrykqzpcxfre.png</t>
   </si>
   <si>
-    <t>Spirit Jellyfish Ashes</t>
-  </si>
-  <si>
     <t>Summons spirit jellyfish</t>
   </si>
   <si>
@@ -913,9 +736,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f697066c0l0i2rfjc7ykblsby5ox.png</t>
   </si>
   <si>
-    <t>Stormhawk Deenh</t>
-  </si>
-  <si>
     <t>Summons spirit of Stormhawk Deenh</t>
   </si>
   <si>
@@ -925,9 +745,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69ecd388l0i2rfmox0cljjuuri.png</t>
-  </si>
-  <si>
-    <t>Twinsage Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons Twinsage sorcerer spirit</t>
@@ -942,9 +759,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f69bf3136l0i2rfs0407qepaxpho.png</t>
   </si>
   <si>
-    <t>Vulgar Militia Ashes</t>
-  </si>
-  <si>
     <t>Summons three vulgar militia spirits</t>
   </si>
   <si>
@@ -957,9 +771,6 @@
     <t>https://eldenring.fanapis.com/images/spirits/17f6987842cl0i2rh0v17nw2hyrdslh.png</t>
   </si>
   <si>
-    <t>Wandering Noble Ashes</t>
-  </si>
-  <si>
     <t>Summons five wandering noble spirits</t>
   </si>
   <si>
@@ -969,9 +780,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69871c91l0i2rfwnjft8senytx.png</t>
-  </si>
-  <si>
-    <t>Warhawk Ashes</t>
   </si>
   <si>
     <t>Summons warhawk spirit</t>
@@ -985,9 +793,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/spirits/17f69e64c4al0i2rg6ksmiwxmcgad.png</t>
-  </si>
-  <si>
-    <t>Winged Misbegotten Ashes</t>
   </si>
   <si>
     <t>Summons winged misbegotten spirit</t>
@@ -1289,707 +1094,614 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>2718.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>53.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1">
         <v>922.0</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2719.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>63.0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="3">
         <v>1070.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="1">
+        <v>2720.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>108.0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="3">
         <v>1440.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="1">
+        <v>2721.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>57.0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="1">
         <v>454.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
+      <c r="A6" s="1">
+        <v>2722.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>67.0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="1">
         <v>646.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
+      <c r="A7" s="1">
+        <v>2723.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>102.0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="1">
         <v>646.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
+      <c r="A8" s="1">
+        <v>2724.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>100.0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="3">
         <v>1238.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
+      <c r="A9" s="1">
+        <v>2725.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>100.0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F9" s="3">
         <v>1238.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
+      <c r="A10" s="1">
+        <v>2726.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>122.0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="3">
         <v>1165.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
+      <c r="A11" s="1">
+        <v>2727.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>132.0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="1">
         <v>876.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
+      <c r="A12" s="1">
+        <v>2728.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>115.0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" s="3">
         <v>1158.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
+      <c r="A13" s="1">
+        <v>2729.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>95.0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" s="1">
         <v>657.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
+      <c r="A14" s="1">
+        <v>2730.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>77.0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="1">
         <v>501.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>60</v>
+      <c r="A15" s="1">
+        <v>2731.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>127.0</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="1">
         <v>876.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
+      <c r="A16" s="1">
+        <v>2732.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
         <v>101.0</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F16" s="1">
         <v>933.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
+      <c r="A17" s="1">
+        <v>2733.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
         <v>69.0</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" s="1">
         <v>2640.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
+      <c r="A18" s="1">
+        <v>2734.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1">
         <v>124.0</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F18" s="1">
         <v>973.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>76</v>
+      <c r="A19" s="1">
+        <v>2735.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>87.0</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F19" s="3">
         <v>1037.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>80</v>
+      <c r="A20" s="1">
+        <v>2736.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>118.0</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" s="3">
         <v>1037.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
+      <c r="A21" s="1">
+        <v>2737.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1">
         <v>50.0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F21" s="1">
         <v>449.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
+      <c r="A22" s="1">
+        <v>2738.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <v>82.0</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F22" s="3">
         <v>1037.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>92</v>
+      <c r="A23" s="1">
+        <v>2739.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>85.0</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F23" s="3">
         <v>1306.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
+      <c r="A24" s="1">
+        <v>2740.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1">
         <v>0.0</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F24" s="1">
         <v>429.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>100</v>
+      <c r="A25" s="1">
+        <v>2741.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>49.0</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F25" s="1">
         <v>781.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
+      <c r="A26" s="1">
+        <v>2742.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1">
         <v>54.0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F26" s="1">
         <v>710.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>108</v>
+      <c r="A27" s="1">
+        <v>2743.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
         <v>74.0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F27" s="1">
         <v>390.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>112</v>
+      <c r="A28" s="1">
+        <v>2744.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1">
         <v>66.0</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F28" s="1">
         <v>646.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>116</v>
+      <c r="A29" s="1">
+        <v>2745.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>60.0</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F29" s="3">
         <v>1037.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>120</v>
+      <c r="A30" s="1">
+        <v>2746.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>88.0</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F30" s="3">
         <v>1037.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>124</v>
+      <c r="A31" s="1">
+        <v>2747.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1">
         <v>73.0</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F31" s="3">
         <v>1133.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>128</v>
+      <c r="A32" s="1">
+        <v>2748.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1">
         <v>240.0</v>
@@ -1998,205 +1710,178 @@
         <v>1070.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
+      <c r="A33" s="1">
+        <v>2749.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1">
         <v>74.0</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F33" s="1">
         <v>390.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>136</v>
+      <c r="A34" s="1">
+        <v>2750.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1">
         <v>64.0</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F34" s="1">
         <v>774.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>140</v>
+      <c r="A35" s="1">
+        <v>2751.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1">
         <v>104.0</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F35" s="1">
         <v>829.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>144</v>
+      <c r="A36" s="1">
+        <v>2752.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1">
         <v>55.0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F36" s="1">
         <v>500.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>148</v>
+      <c r="A37" s="1">
+        <v>2753.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1">
         <v>110.0</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F37" s="3">
         <v>1229.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>152</v>
+      <c r="A38" s="1">
+        <v>2754.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1">
         <v>62.0</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F38" s="3">
         <v>1037.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>156</v>
+      <c r="A39" s="1">
+        <v>2755.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1">
         <v>67.0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F39" s="1">
         <v>563.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>160</v>
+      <c r="A40" s="1">
+        <v>2756.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1">
         <v>75.0</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F40" s="1">
         <v>326.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>164</v>
+      <c r="A41" s="1">
+        <v>2757.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1">
         <v>660.0</v>
@@ -2205,21 +1890,18 @@
         <v>1037.0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>168</v>
+      <c r="A42" s="1">
+        <v>2758.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E42" s="1">
         <v>185.0</v>
@@ -2228,366 +1910,318 @@
         <v>500.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>172</v>
+      <c r="A43" s="1">
+        <v>2759.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1">
         <v>90.0</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F43" s="3">
         <v>1037.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>176</v>
+      <c r="A44" s="1">
+        <v>2760.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D44" s="1">
         <v>97.0</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F44" s="1">
         <v>838.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>180</v>
+      <c r="A45" s="1">
+        <v>2761.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D45" s="1">
         <v>11.0</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F45" s="1">
         <v>711.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>184</v>
+      <c r="A46" s="1">
+        <v>2762.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1">
         <v>61.0</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F46" s="1">
         <v>359.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>188</v>
+      <c r="A47" s="1">
+        <v>2763.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1">
         <v>113.0</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F47" s="3">
         <v>1037.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>192</v>
+      <c r="A48" s="1">
+        <v>2764.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="D48" s="1">
         <v>72.0</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F48" s="1">
         <v>570.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>196</v>
+      <c r="A49" s="1">
+        <v>2765.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1">
         <v>81.0</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F49" s="1">
         <v>973.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>200</v>
+      <c r="A50" s="1">
+        <v>2766.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1">
         <v>78.0</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F50" s="1">
         <v>518.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>204</v>
+      <c r="A51" s="1">
+        <v>2767.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1">
         <v>40.0</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F51" s="3">
         <v>1631.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>208</v>
+      <c r="A52" s="1">
+        <v>2768.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1">
         <v>71.0</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F52" s="1">
         <v>646.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>212</v>
+      <c r="A53" s="1">
+        <v>2769.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
         <v>59.0</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F53" s="1">
         <v>582.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>216</v>
+      <c r="A54" s="1">
+        <v>2770.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1">
         <v>106.0</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F54" s="3">
         <v>1187.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>220</v>
+      <c r="A55" s="1">
+        <v>2771.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D55" s="1">
         <v>35.0</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F55" s="1">
         <v>781.0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>224</v>
+      <c r="A56" s="1">
+        <v>2772.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="D56" s="1">
         <v>22.0</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F56" s="1">
         <v>563.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>228</v>
+      <c r="A57" s="1">
+        <v>2773.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1">
         <v>44.0</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F57" s="1">
         <v>365.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>232</v>
+      <c r="A58" s="1">
+        <v>2774.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E58" s="1">
         <v>135.0</v>
@@ -2596,168 +2230,147 @@
         <v>507.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>236</v>
+      <c r="A59" s="1">
+        <v>2775.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D59" s="1">
         <v>31.0</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F59" s="1">
         <v>909.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>240</v>
+      <c r="A60" s="1">
+        <v>2776.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="D60" s="1">
         <v>47.0</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F60" s="1">
         <v>711.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>244</v>
+      <c r="A61" s="1">
+        <v>2777.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="D61" s="1">
         <v>89.0</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F61" s="1">
         <v>852.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>248</v>
+      <c r="A62" s="1">
+        <v>2778.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D62" s="1">
         <v>70.0</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F62" s="1">
         <v>518.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>252</v>
+      <c r="A63" s="1">
+        <v>2779.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="D63" s="1">
         <v>28.0</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F63" s="1">
         <v>429.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>256</v>
+      <c r="A64" s="1">
+        <v>2780.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1">
         <v>52.0</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F64" s="1">
         <v>993.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>260</v>
+      <c r="A65" s="1">
+        <v>2781.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D65" s="1">
         <v>37.0</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F65" s="1">
         <v>646.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/spirit_ashes.xlsx
+++ b/data/spirit_ashes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -19,22 +19,31 @@
     <t>info</t>
   </si>
   <si>
+    <t>fp_cost</t>
+  </si>
+  <si>
+    <t>hp_cost</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>fp_cost</t>
-  </si>
-  <si>
-    <t>hp_cost</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>image_url</t>
+    <t>Albinauric Ashes</t>
   </si>
   <si>
     <t>Summons two Albinauric spirits</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698bf108l0i2rc1o532xfaytwzl.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -43,10 +52,13 @@
 Both are second-generation Albinaurics, with dumpy heads that resemble those of frogs.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698bf108l0i2rc1o532xfaytwzl.png</t>
+    <t>Ancestral Follower Ashes</t>
   </si>
   <si>
     <t>Summons ancestral follower spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c5e05fl0i2rc2ni1ozwjqbtm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -54,10 +66,13 @@
 A spirit of the horned folk who eschew letters and metalworking. Brawny, and versed in distinctive spiritual arts, this particular tribesman wields a heavy bow.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c5e05fl0i2rc2ni1ozwjqbtm.png</t>
+    <t>Ancient Dragon Knight Kristoff</t>
   </si>
   <si>
     <t>Summons spirit of Ancient Dragon Knight Kristoff</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f84b01l0i2rhicosayr42hna.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -67,10 +82,13 @@
 After the First Defense of Leyndell, Kristoff earned the hero's honor of Erdtree Burial for the feat of capturing Godefroy the Grafted.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f84b01l0i2rhicosayr42hna.png</t>
+    <t>Archer Ashes</t>
   </si>
   <si>
     <t>Summons three archer spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69857498l0i2rc3b57qyly3sydo.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -79,10 +97,13 @@
 Though their methods are somewhat crude, they work well as a squadron, firing a hail of arrows in unison at the sound of a war cry.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69857498l0i2rc3b57qyly3sydo.png</t>
+    <t>Avionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two avionette soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69962123l0i2rc3wxphqaa3codo.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -92,10 +113,13 @@
 Can sometimes malfunction when damaged.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69962123l0i2rc3wxphqaa3codo.png</t>
+    <t>Azula Beastman Ashes</t>
   </si>
   <si>
     <t>Summons two Azula beastman spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c1b5ebl0i2rhm76pm5x3fs02f.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -103,10 +127,13 @@
 Spirits of beastmen from doomed Farum Azula, the slowly crumbling ruins in the skies. These ruins are said to be the remains of a giant mausoleum enshrining an ancient dragon, guarded by chosen beastmen who wield weapons clad in lightning.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c1b5ebl0i2rhm76pm5x3fs02f.png</t>
+    <t>Banished Knight Engvall</t>
   </si>
   <si>
     <t>Summons spirit of Banished Knight Engvall</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bc440el0i2rho6izbci2my7fi.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -114,10 +141,13 @@
 One of the two knights dubbed the Wings of the Storm. Despite his banishment, he rejected the invitation of the Grace-Given Lord, instead keeping watch over a masterless castle for many years, gaining renown as a hero of the fringes.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bc440el0i2rho6izbci2my7fi.png</t>
+    <t>Banished Knight Oleg</t>
   </si>
   <si>
     <t>Summons spirit of Banished Knight Oleg</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ac4bd0l0i2rc618tsrggfp3kh.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -125,10 +155,13 @@
 One of the two knights known as the Wings of the Storm. After his banishment, he attracted the notice of the Grace-Given Lord and later, having slain a hundred traitors as the Lord's hand, Oleg earned the hero's honor of Erdtree Burial.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ac4bd0l0i2rc618tsrggfp3kh.png</t>
+    <t>Battlemage Hugues</t>
   </si>
   <si>
     <t>Summons spirit of Battlemage Hugues</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698e5162l0i2rhsg27fvvcchhh8.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -137,10 +170,13 @@
 Haima scholars seek to quell conflict with cannon fire and the gavel, but Hugues developed a longing for it.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698e5162l0i2rhsg27fvvcchhh8.png</t>
+    <t>Black Knife Tiche</t>
   </si>
   <si>
     <t>Summons spirit of Black Knife Tiche</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6970a4e0l0i2rcxy5mhe8469uy7.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -148,10 +184,13 @@
 Tiche was one of the assassins who, on the night of the plot, imbued her black knife with the Rune of Death and slew Godwyn the Golden. She was the daughter of the Black Knife Ringleader, Alecto, and was killed protecting her mother during their flight from the royal capital.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6970a4e0l0i2rcxy5mhe8469uy7.png</t>
+    <t>Blackflame Monk Amon</t>
   </si>
   <si>
     <t>Summons spirit of Blackflame Monk Amon</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69de3343l0i2ri02qpv643ynu3.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -160,10 +199,13 @@
 Or perhaps it is better said that he fled from the Giants' Flame—out of cowardice.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69de3343l0i2ri02qpv643ynu3.png</t>
+    <t>Bloodhound Knight Floh</t>
   </si>
   <si>
     <t>Summons spirit of Bloodhound Knight Floh</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c882dal0i2rgmqlt6en3tjlqm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -172,10 +214,13 @@
 Floh vowed that there was only one lord he would serve: a true king. And so, the Rabid Stray never found a master.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c882dal0i2rgmqlt6en3tjlqm.png</t>
+    <t>Clayman Ashes</t>
   </si>
   <si>
     <t>Summons two clayman spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69cb98c7l0i2ri0lmguxpofwvp.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -184,10 +229,13 @@
 The warped remains of priests who searched for revelation in service of the ancient dynasty, they employ two sorceries that produce smaller and larger bubbles.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69cb98c7l0i2ri0lmguxpofwvp.png</t>
+    <t>Cleanrot Knight Finlay</t>
   </si>
   <si>
     <t>Summons spirit of Cleanrot Knight Finlay</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f699877aal0i2rifkvslfle9b9ha.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -195,10 +243,13 @@
 Finlay was one of the few survivors of the Battle of Aeonia, who in an unimaginable act of heroism carried the slumbering demigod Malenia all the way back to the Haligtree. She managed the feat alone, fending off all manner of foes along the way.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f699877aal0i2rifkvslfle9b9ha.png</t>
+    <t>Crystalian Ashes</t>
   </si>
   <si>
     <t>Summons Crystalian spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c8b5l0i2ri969yh285riaw5.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -206,10 +257,13 @@
 Spirit that wields round crystalline blades, both big and small. Its sturdy body, itself hewn from crystal long ago, is hard enough to blunt its opponent's blades, but blows from bludgeoning weapons can shatter it easily.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c8b5l0i2ri969yh285riaw5.png</t>
+    <t>Demi-Human Ashes</t>
   </si>
   <si>
     <t>Summons five demi-human spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69beb243l0i2rcptdnjy0wl2nxj.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -217,10 +271,13 @@
 Spirits of demi-humans that are small in stature, but have a violent, brutish disposition. Though they seem somewhat intelligent, when night falls, their blood boils and they become feral.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69beb243l0i2rcptdnjy0wl2nxj.png</t>
+    <t>Depraved Perfumer Carmaan</t>
   </si>
   <si>
     <t>Summons spirit of Depraved Perfumer Carmaan</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c971e5l0i2ricvamdlfi9hd4e.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -228,10 +285,13 @@
 Depraved perfumers practice their art for themselves alone. Carmaan was a notably formidable perfumer whose strength rivaled that of heroes, and it is said that he was in search of a secret physick of revivification.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c971e5l0i2ricvamdlfi9hd4e.png</t>
+    <t>Dolores the Sleeping Arrow Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Dolores the Sleeping Arrow</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f7b11fl0i2rix87eagayvg5or.png</t>
   </si>
   <si>
     <t>One of Seluvis's favorite puppets.
@@ -240,10 +300,13 @@
 Dolores once belonged to the Roundtable Hold, where she was both a critic and a friend of Gideon the All-Knowing. It was because of her that he and Seluvis went their separate ways.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f7b11fl0i2rix87eagayvg5or.png</t>
+    <t>Dung Eater Puppet</t>
   </si>
   <si>
     <t>Summons spirit of the Dung Eater</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f699d3e8fl0i2rijbhqroryzjjtm.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -254,10 +317,13 @@
 How hideous and sinister this puppet is, and yet, its utter despair invites one to care for it.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f699d3e8fl0i2rijbhqroryzjjtm.png</t>
+    <t>Fanged Imp Ashes</t>
   </si>
   <si>
     <t>Summons two fanged imp spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6984b305l0i2rcqq95m4bqpnb0t.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -266,10 +332,13 @@
 The two imps seem fond of each other's company.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6984b305l0i2rcqq95m4bqpnb0t.png</t>
+    <t>Finger Maiden Therolina Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Finger Maiden Therolina</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69776c1dl0i2rcsqvsjrwpwre1p.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -278,10 +347,13 @@
 A Maiden without a Tarnished. A Tarnished without a Maiden. And yet no guide to bring them together.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69776c1dl0i2rcsqvsjrwpwre1p.png</t>
+    <t>Fire Monk Ashes</t>
   </si>
   <si>
     <t>Summons Fire Monk spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bd2cd3l0i2riv19z68urypaam.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -290,10 +362,13 @@
 Though he was charged with keeping watch over the Flame, after many years of solemn duty, he has succumbed to its allure.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bd2cd3l0i2riv19z68urypaam.png</t>
+    <t>Giant Rat Ashes</t>
   </si>
   <si>
     <t>Summons three giant rat spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f4e16bl0i2rctgy4eba6y1dq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -303,10 +378,13 @@
 Even as spirits, these vermin seem to multiply endlessly. Enhancing these ashes can increase their numbers.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f4e16bl0i2rctgy4eba6y1dq.png</t>
+    <t>Glintstone Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons glintstone sorcerer spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69e84114l0i2rdbhn73i6cz73tm.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -315,10 +393,13 @@
 A scholar of the Olivinus Conspectus, who has mastered the use of the Glintstone Stars sorcery.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69e84114l0i2rdbhn73i6cz73tm.png</t>
+    <t>Godrick Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Godrick soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69d490f4l0i2rdevcj5cyogvhec.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -327,10 +408,13 @@
 The soldiers who serve Godrick the Grafted are what remains of the army that fled the royal capital of the Erdtree.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69d490f4l0i2rdevcj5cyogvhec.png</t>
+    <t>Greatshield Soldier Ashes</t>
   </si>
   <si>
     <t>Summons five greatshield soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f56843l0i2rdofm9tav197rzq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -339,10 +423,13 @@
 Though their methods are somewhat crude, they work well as a squadron, and will attract the attention of enemies or lob ghostflame from the rearguard.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f56843l0i2rdofm9tav197rzq.png</t>
+    <t>Haligtree Soldier Ashes</t>
   </si>
   <si>
     <t>Summons four Haligtree soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b464d7l0i2riyiocraa9z2guc.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -352,10 +439,13 @@
 May the flash of our deaths guide Miquella's return.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b464d7l0i2riyiocraa9z2guc.png</t>
+    <t>Jarwight Puppet</t>
   </si>
   <si>
     <t>Summons Jarwight spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b77adbl0i2rdg8c9ycaad36y5.png</t>
   </si>
   <si>
     <t>One of Seluvis's puppets.
@@ -365,10 +455,13 @@
 "You are not yet ready to join the warriors inside. No, you must apply yourself! Better yourself, and one day I will return for you."</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b77adbl0i2rdg8c9ycaad36y5.png</t>
+    <t>Kaiden Sellsword Ashes</t>
   </si>
   <si>
     <t>Summons Kaiden sellsword spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69dc6c64l0i2rdkqrx6suz8t4k.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -377,10 +470,13 @@
 The sellswords of Kaiden made their prowess known on countless battlefields.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69dc6c64l0i2rdkqrx6suz8t4k.png</t>
+    <t>Kindred of Rot Ashes</t>
   </si>
   <si>
     <t>Summons Kindred of Rot spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a4c036l0i2rhgqvv4avdj310g.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -390,10 +486,13 @@
 The Kindred of Rot are the servants of the Goddess of Rot—servants that have been forsaken.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a4c036l0i2rhgqvv4avdj310g.png</t>
+    <t>Land Squirt Ashes</t>
   </si>
   <si>
     <t>Summons three land squirt spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69be5a2fl0i2rh6qmlpa2s0tpao.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -403,10 +502,13 @@
 The firm, fleshy tubes of the creatures remain rooted to the spot, spraying poisonous liquid over their surroundings.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69be5a2fl0i2rh6qmlpa2s0tpao.png</t>
+    <t>Latenna the Albinauric</t>
   </si>
   <si>
     <t>Summons spirit of Latenna the Albinauric</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6978cd87l0i2rgbupusbrmdqmhl.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -415,10 +517,13 @@
 Latenna was renowned as a deft magic archer. But having lost her beloved wolf companion, Lobo, she cannot move from the place where she was summoned.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6978cd87l0i2rgbupusbrmdqmhl.png</t>
+    <t>Leyndell Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Leyndell soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69d471b4l0i2rgvwohtrk19bpy.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -427,10 +532,13 @@
 The soldiers of Leyndell fight their battles defensively. During the Shattering, they were the ramparts that fortified the royal capital.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69d471b4l0i2rgvwohtrk19bpy.png</t>
+    <t>Lhutel the Headless</t>
   </si>
   <si>
     <t>Summons spirit of Lhutel the Headless</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f696cd1c3l0i2rdwfiwxjblacnad.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -440,10 +548,13 @@
 Lhutel sacrificed her life so that in Death she could continue to protect a soulless demigod until their revival, earning her the hero's honor of Erdtree Burial.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f696cd1c3l0i2rdwfiwxjblacnad.png</t>
+    <t>Lone Wolf Ashes</t>
   </si>
   <si>
     <t>Summons three lone wolf spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69718dccl0i2rebxuwsfendz6e.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -452,10 +563,13 @@
 The wolf spirits overwhelm enemies with their agility, aiding the summoner in combat.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69718dccl0i2rebxuwsfendz6e.png</t>
+    <t>Mad Pumpkin Head Ashes</t>
   </si>
   <si>
     <t>Summons mad pumpkin head spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f698ab785l0i2re2gfjekyqwlm8j.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -465,10 +579,13 @@
 This mad soldier is all that is left of a broken gladiator.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f698ab785l0i2re2gfjekyqwlm8j.png</t>
+    <t>Man-Serpent Ashes</t>
   </si>
   <si>
     <t>Summons man-serpent spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bda110l0i2rj2fpyaeegsbkdn.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -477,10 +594,13 @@
 It is said that long ago, the elder serpent that dwelled on Mt. Gelmir devoured a demigod, and the birth of the man-serpents followed.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bda110l0i2rj2fpyaeegsbkdn.png</t>
+    <t>Marionette Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two marionette soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c24d62l0i2re6lrc9a3zopybr.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -490,10 +610,13 @@
 On the verge of falling apart, they are ill-disciplined and attack without warning.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c24d62l0i2re6lrc9a3zopybr.png</t>
+    <t>Mausoleum Soldier Ashes</t>
   </si>
   <si>
     <t>Summons five mausoleum soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ab4977l0i2rj50c2ffeu71unu.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -502,10 +625,13 @@
 The mausoleum is where the bodies of soulless demigods are lain to rest, and these soldiers followed their masters into Death by severing their own heads from their bodies.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ab4977l0i2rj50c2ffeu71unu.png</t>
+    <t>Mimic Tear Ashes</t>
   </si>
   <si>
     <t>Summons mimic tear spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b5bc8dl0i2redg5p2ojmuksvu.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -515,10 +641,13 @@
 Mimic tears are the result of an attempt by the Eternal City to forge a lord.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b5bc8dl0i2redg5p2ojmuksvu.png</t>
+    <t>Miranda Sprout Ashes</t>
   </si>
   <si>
     <t>Summons five miranda sprout spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c6b7d1l0i2rgxuyvekun2pas.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -528,10 +657,13 @@
 Vulnerable to fire—do take care of the little darlings.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c6b7d1l0i2rgxuyvekun2pas.png</t>
+    <t>Nepheli Loux Puppet</t>
   </si>
   <si>
     <t>Summons spirit of Nepheli Loux</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69abc3b9l0i2rjr6m5bbrtexdp.png</t>
   </si>
   <si>
     <t>One of Seluvis's favorite puppets.
@@ -540,10 +672,13 @@
 A diamond in the rough, deserving of special care lest its potential be squandered. Nepheli Loux truly was a warrior.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69abc3b9l0i2rjr6m5bbrtexdp.png</t>
+    <t>Nightmaiden &amp; Swordstress Puppets</t>
   </si>
   <si>
     <t>Summons nightmaiden &amp; swordstress spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a3cc86l0i2rej3i1ddya1oiq9.png</t>
   </si>
   <si>
     <t>An old puppet crafted in the Eternal City.
@@ -551,10 +686,13 @@
 These sisters, members of a cold-blooded race who wield flowing weapons, became puppets of their own volition.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a3cc86l0i2rej3i1ddya1oiq9.png</t>
+    <t>Noble Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons noble sorcerer spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a2890el0i2renh0xht1xcqkfe.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -563,10 +701,13 @@
 His talents were insufficient to be worthy of donning the stone crown, however, and he is only capable of using the most rudimentary sorcery.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a2890el0i2renh0xht1xcqkfe.png</t>
+    <t>Nomad Ashes</t>
   </si>
   <si>
     <t>Summons nomad spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69cba9a9l0i2reprf9ja1xfjpg.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -574,10 +715,13 @@
 A member of a tribe that was entombed in the earth so as to bury the maddening disease that followed them. Able to emit the terrible flame of frenzy from his eyes, but has low HP and is frail, unable to take much in the way of punishment.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69cba9a9l0i2reprf9ja1xfjpg.png</t>
+    <t>Omenkiller Rollo</t>
   </si>
   <si>
     <t>Summons spirit of Omenkiller Rollo</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b8b45cl0i2revtxehcf0mla2c.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -586,10 +730,13 @@
 Once a famous perfumer, Rollo imbibed a physick to rid himself of emotion, thus enabling him to enact his nightmarish labor, hunting the Omen.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b8b45cl0i2revtxehcf0mla2c.png</t>
+    <t>Oracle Envoy Ashes</t>
   </si>
   <si>
     <t>Summons four Oracle Envoy spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69663925l0i2rjhexap3mp9otq.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -597,10 +744,13 @@
 Spirits of a monstrous band of musicians who employ sacred arts. It is said that when Oracle Envoys appear, playing their pipes, they do so to herald the arrival of a new god, or a new age.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69663925l0i2rjhexap3mp9otq.png</t>
+    <t>Page Ashes</t>
   </si>
   <si>
     <t>Summons page spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69f00316l0i2rf7rq3l4lzz67b.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -609,10 +759,13 @@
 One becomes a page merely by accident of being born into obscurity; nothing is asked of ability, talent, or volition.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69f00316l0i2rf7rq3l4lzz67b.png</t>
+    <t>Perfumer Tricia</t>
   </si>
   <si>
     <t>Summons spirit of Perfumer Tricia</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b927b9l0i2rgoqeiknjm21fba.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -621,10 +774,13 @@
 A tale akin to the origins of the deathbed companions.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b927b9l0i2rgoqeiknjm21fba.png</t>
+    <t>Putrid Corpse Ashes</t>
   </si>
   <si>
     <t>Summons four putrid corpse spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69b254ffl0i2rjlmj6dtmbbwve.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -632,10 +788,13 @@
 These spirits appear some distance from the summoner. Though their movements are dull and confused, their low moans make them effective at drawing the attention of enemies. True death does not come easily for them.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69b254ffl0i2rjlmj6dtmbbwve.png</t>
+    <t>Radahn Soldier Ashes</t>
   </si>
   <si>
     <t>Summons two Radahn soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ce3ebfl0i2rjo4bbtu73ia5tu.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -644,10 +803,13 @@
 General Radahn's soldiers were all reputed to be masterful warriors, and it was popularly said that the Redmanes knew no weakness.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ce3ebfl0i2rjo4bbtu73ia5tu.png</t>
+    <t>Raya Lucaria Soldier Ashes</t>
   </si>
   <si>
     <t>Summons three Raya Lucaria soldier spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69adba9el0i2rf0sm2c9jcpc2m.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -656,10 +818,13 @@
 The soldiers of Raya Lucaria were also known as the Cuckoos. They were given free rein by the academy to wage war as they pleased, and they were infamous for their rapacious ways.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69adba9el0i2rf0sm2c9jcpc2m.png</t>
+    <t>Redmane Knight Ogha</t>
   </si>
   <si>
     <t>Summons spirit of Redmane Knight Ogha</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69eb8a3dl0i2rjqdm5kzaa1sd9k.png</t>
   </si>
   <si>
     <t>Legendary ashen remains.
@@ -670,10 +835,13 @@
 May use a rain of gravitational arrows in response to a war cry, but only once.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69eb8a3dl0i2rjqdm5kzaa1sd9k.png</t>
+    <t>Rotten Stray Ashes</t>
   </si>
   <si>
     <t>Summons rotten stray spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69732716l0i2rg3m2el64hvaq0m.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -682,10 +850,13 @@
 Though it is only a small creature, it is as violent as it is nimble, and its fangs fester with poisonous rot.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69732716l0i2rg3m2el64hvaq0m.png</t>
+    <t>Skeletal Bandit Ashes</t>
   </si>
   <si>
     <t>Summons skeletal bandit spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c032l0i2rfjqjylurrvvo1l.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -694,10 +865,13 @@
 After the night of the plot, Deathroot appeared in the Lands Between, and Those Who Live in Death soon followed.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69c7c032l0i2rfjqjylurrvvo1l.png</t>
+    <t>Skeletal Militiaman Ashes</t>
   </si>
   <si>
     <t>Summons two skeletal militiaman spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69a1eaddl0i2rfd40p6zlanz41sf.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -706,10 +880,13 @@
 This is the grotesque fate of those who come into contact with Deathroot.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69a1eaddl0i2rfd40p6zlanz41sf.png</t>
+    <t>Soldjars of Fortune Ashes</t>
   </si>
   <si>
     <t>Summons three little living jar spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ddaf0fl0i2rjyrykqzpcxfre.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -720,10 +897,13 @@
 "Tell the others—tell them how brightly a fire jar burns."</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ddaf0fl0i2rjyrykqzpcxfre.png</t>
+    <t>Spirit Jellyfish Ashes</t>
   </si>
   <si>
     <t>Summons spirit jellyfish</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f697066c0l0i2rfjc7ykblsby5ox.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -733,10 +913,13 @@
 It seems her name is Aurelia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f697066c0l0i2rfjc7ykblsby5ox.png</t>
+    <t>Stormhawk Deenh</t>
   </si>
   <si>
     <t>Summons spirit of Stormhawk Deenh</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ecd388l0i2rfmox0cljjuuri.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -744,10 +927,13 @@
 Spirit of a fierce hawk that faithfully rendered lifelong service to the old king of Stormveil long ago, when the true storm raged. Its cries embolden its fellows in battle, and the tempestuous winds that encircle it shred through foes.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ecd388l0i2rfmox0cljjuuri.png</t>
+    <t>Twinsage Sorcerer Ashes</t>
   </si>
   <si>
     <t>Summons Twinsage sorcerer spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69bf3136l0i2rfs0407qepaxpho.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -756,10 +942,13 @@
 Those who study the Twinsage Conspectus are the academy's elite, capable of mastering the Glintstone Cometshard and Crystal Burst sorceries.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69bf3136l0i2rfs0407qepaxpho.png</t>
+    <t>Vulgar Militia Ashes</t>
   </si>
   <si>
     <t>Summons three vulgar militia spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f6987842cl0i2rh0v17nw2hyrdslh.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -768,10 +957,13 @@
 In the Lands Between, the small were scorned, and so they formed their vulgar militia as a means to make a living, albeit in ignominy.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f6987842cl0i2rh0v17nw2hyrdslh.png</t>
+    <t>Wandering Noble Ashes</t>
   </si>
   <si>
     <t>Summons five wandering noble spirits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69871c91l0i2rfwnjft8senytx.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -779,10 +971,13 @@
 The spirits of nobles who, after death, now wander the Lands Between. Surely they were in search of something once—but whatever it was has long been forgotten.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69871c91l0i2rfwnjft8senytx.png</t>
+    <t>Warhawk Ashes</t>
   </si>
   <si>
     <t>Summons warhawk spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69e64c4al0i2rg6ksmiwxmcgad.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
@@ -792,18 +987,18 @@
 The storm is a warhawk's cradle.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69e64c4al0i2rg6ksmiwxmcgad.png</t>
+    <t>Winged Misbegotten Ashes</t>
   </si>
   <si>
     <t>Summons winged misbegotten spirit</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/spirits/17f69ba4ffal0i2rgd5rdlvueh3v0q.png</t>
   </si>
   <si>
     <t>Ashen remains in which spirits yet dwell.
 Use to summon the spirit of a winged misbegotten.
 A spirit with the aspect of wings which takes flight to loose arrows from its bow. The misbegotten are held to be a punishment for making contact with the Crucible, and from birth they are treated as slaves, or worse.</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/spirits/17f69ba4ffal0i2rgd5rdlvueh3v0q.png</t>
   </si>
 </sst>
 </file>
@@ -1086,1291 +1281,1483 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2718.0</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>53.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>922.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2719.0</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
         <v>63.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
         <v>1070.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>2720.0</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
         <v>108.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
         <v>1440.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>2721.0</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
         <v>57.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>454.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>2722.0</v>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
         <v>67.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
         <v>646.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>2723.0</v>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
         <v>102.0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
         <v>646.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>2724.0</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
         <v>100.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
         <v>1238.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>2725.0</v>
+      <c r="A9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
         <v>100.0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>1238.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>2726.0</v>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1">
         <v>122.0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
         <v>1165.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>2727.0</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
         <v>132.0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
         <v>876.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>2728.0</v>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
         <v>115.0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
         <v>1158.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>2729.0</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1">
         <v>95.0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
         <v>657.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>2730.0</v>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
         <v>77.0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
         <v>501.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>2731.0</v>
+      <c r="A15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1">
         <v>127.0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
         <v>876.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>2732.0</v>
+      <c r="A16" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
         <v>101.0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
         <v>933.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>2733.0</v>
+      <c r="A17" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1">
         <v>69.0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
         <v>2640.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>2734.0</v>
+      <c r="A18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1">
         <v>124.0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
         <v>973.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>2735.0</v>
+      <c r="A19" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1">
         <v>87.0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
         <v>1037.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>2736.0</v>
+      <c r="A20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1">
         <v>118.0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
         <v>1037.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>2737.0</v>
+      <c r="A21" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
         <v>449.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>2738.0</v>
+      <c r="A22" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1">
         <v>82.0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
         <v>1037.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>2739.0</v>
+      <c r="A23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="1">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1">
         <v>85.0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
         <v>1306.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>2740.0</v>
+      <c r="A24" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.0</v>
       </c>
-      <c r="F24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
         <v>429.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>2741.0</v>
+      <c r="A25" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1">
         <v>49.0</v>
       </c>
-      <c r="F25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
         <v>781.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>2742.0</v>
+      <c r="A26" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1">
+        <v>105</v>
+      </c>
+      <c r="C26" s="1">
         <v>54.0</v>
       </c>
-      <c r="F26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
         <v>710.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>2743.0</v>
+      <c r="A27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1">
         <v>74.0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
         <v>390.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>2744.0</v>
+      <c r="A28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1">
         <v>66.0</v>
       </c>
-      <c r="F28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
         <v>646.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>2745.0</v>
+      <c r="A29" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1">
         <v>60.0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
         <v>1037.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>2746.0</v>
+      <c r="A30" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1">
         <v>88.0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3">
         <v>1037.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>2747.0</v>
+      <c r="A31" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1">
         <v>73.0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
         <v>1133.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>2748.0</v>
+      <c r="A32" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
         <v>240.0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
         <v>1070.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>2749.0</v>
+      <c r="A33" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1">
+        <v>133</v>
+      </c>
+      <c r="C33" s="1">
         <v>74.0</v>
       </c>
-      <c r="F33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
         <v>390.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>2750.0</v>
+      <c r="A34" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="1">
+        <v>137</v>
+      </c>
+      <c r="C34" s="1">
         <v>64.0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
         <v>774.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>2751.0</v>
+      <c r="A35" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1">
+        <v>141</v>
+      </c>
+      <c r="C35" s="1">
         <v>104.0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
         <v>829.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>2752.0</v>
+      <c r="A36" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="1">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1">
         <v>55.0</v>
       </c>
-      <c r="F36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
         <v>500.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>111</v>
+        <v>146</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>2753.0</v>
+      <c r="A37" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1">
+        <v>149</v>
+      </c>
+      <c r="C37" s="1">
         <v>110.0</v>
       </c>
-      <c r="F37" s="3">
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
         <v>1229.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>2754.0</v>
+      <c r="A38" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="1">
+        <v>153</v>
+      </c>
+      <c r="C38" s="1">
         <v>62.0</v>
       </c>
-      <c r="F38" s="3">
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
         <v>1037.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>2755.0</v>
+      <c r="A39" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1">
+        <v>157</v>
+      </c>
+      <c r="C39" s="1">
         <v>67.0</v>
       </c>
-      <c r="F39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
         <v>563.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>2756.0</v>
+      <c r="A40" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="1">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1">
         <v>75.0</v>
       </c>
-      <c r="F40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
         <v>326.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>2757.0</v>
+      <c r="A41" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
         <v>660.0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E41" s="3">
         <v>1037.0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>2758.0</v>
+      <c r="A42" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>185.0</v>
       </c>
       <c r="E42" s="1">
-        <v>185.0</v>
-      </c>
-      <c r="F42" s="1">
         <v>500.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>2759.0</v>
+      <c r="A43" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="1">
+        <v>173</v>
+      </c>
+      <c r="C43" s="1">
         <v>90.0</v>
       </c>
-      <c r="F43" s="3">
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
         <v>1037.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>132</v>
+        <v>174</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>2760.0</v>
+      <c r="A44" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="1">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1">
         <v>97.0</v>
       </c>
-      <c r="F44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
         <v>838.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>2761.0</v>
+      <c r="A45" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="1">
+        <v>181</v>
+      </c>
+      <c r="C45" s="1">
         <v>11.0</v>
       </c>
-      <c r="F45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
         <v>711.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>138</v>
+        <v>182</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>2762.0</v>
+      <c r="A46" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="1">
+        <v>185</v>
+      </c>
+      <c r="C46" s="1">
         <v>61.0</v>
       </c>
-      <c r="F46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
         <v>359.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>141</v>
+        <v>186</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>2763.0</v>
+      <c r="A47" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="1">
+        <v>189</v>
+      </c>
+      <c r="C47" s="1">
         <v>113.0</v>
       </c>
-      <c r="F47" s="3">
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3">
         <v>1037.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>144</v>
+        <v>190</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>2764.0</v>
+      <c r="A48" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="1">
+        <v>193</v>
+      </c>
+      <c r="C48" s="1">
         <v>72.0</v>
       </c>
-      <c r="F48" s="1">
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
         <v>570.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>147</v>
+        <v>194</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>2765.0</v>
+      <c r="A49" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="1">
+        <v>197</v>
+      </c>
+      <c r="C49" s="1">
         <v>81.0</v>
       </c>
-      <c r="F49" s="1">
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
         <v>973.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>2766.0</v>
+      <c r="A50" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1">
+        <v>201</v>
+      </c>
+      <c r="C50" s="1">
         <v>78.0</v>
       </c>
-      <c r="F50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
         <v>518.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>153</v>
+        <v>202</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>2767.0</v>
+      <c r="A51" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="1">
+        <v>205</v>
+      </c>
+      <c r="C51" s="1">
         <v>40.0</v>
       </c>
-      <c r="F51" s="3">
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3">
         <v>1631.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>156</v>
+        <v>206</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>2768.0</v>
+      <c r="A52" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="1">
+        <v>209</v>
+      </c>
+      <c r="C52" s="1">
         <v>71.0</v>
       </c>
-      <c r="F52" s="1">
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
         <v>646.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>2769.0</v>
+      <c r="A53" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="1">
+        <v>213</v>
+      </c>
+      <c r="C53" s="1">
         <v>59.0</v>
       </c>
-      <c r="F53" s="1">
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
         <v>582.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>162</v>
+        <v>214</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>2770.0</v>
+      <c r="A54" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="1">
+        <v>217</v>
+      </c>
+      <c r="C54" s="1">
         <v>106.0</v>
       </c>
-      <c r="F54" s="3">
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3">
         <v>1187.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>165</v>
+        <v>218</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>2771.0</v>
+      <c r="A55" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1">
+        <v>221</v>
+      </c>
+      <c r="C55" s="1">
         <v>35.0</v>
       </c>
-      <c r="F55" s="1">
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
         <v>781.0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>2772.0</v>
+      <c r="A56" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="1">
+        <v>225</v>
+      </c>
+      <c r="C56" s="1">
         <v>22.0</v>
       </c>
-      <c r="F56" s="1">
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1">
         <v>563.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>171</v>
+        <v>226</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>2773.0</v>
+      <c r="A57" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1">
+        <v>229</v>
+      </c>
+      <c r="C57" s="1">
         <v>44.0</v>
       </c>
-      <c r="F57" s="1">
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1">
         <v>365.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>2774.0</v>
+      <c r="A58" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>135.0</v>
       </c>
       <c r="E58" s="1">
-        <v>135.0</v>
-      </c>
-      <c r="F58" s="1">
         <v>507.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>177</v>
+        <v>234</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>2775.0</v>
+      <c r="A59" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="1">
+        <v>237</v>
+      </c>
+      <c r="C59" s="1">
         <v>31.0</v>
       </c>
-      <c r="F59" s="1">
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1">
         <v>909.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>180</v>
+        <v>238</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>2776.0</v>
+      <c r="A60" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="1">
+        <v>241</v>
+      </c>
+      <c r="C60" s="1">
         <v>47.0</v>
       </c>
-      <c r="F60" s="1">
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1">
         <v>711.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>183</v>
+        <v>242</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>2777.0</v>
+      <c r="A61" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="1">
+        <v>245</v>
+      </c>
+      <c r="C61" s="1">
         <v>89.0</v>
       </c>
-      <c r="F61" s="1">
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1">
         <v>852.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>186</v>
+        <v>246</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>2778.0</v>
+      <c r="A62" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="1">
+        <v>249</v>
+      </c>
+      <c r="C62" s="1">
         <v>70.0</v>
       </c>
-      <c r="F62" s="1">
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
         <v>518.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>189</v>
+        <v>250</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>2779.0</v>
+      <c r="A63" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="1">
+        <v>253</v>
+      </c>
+      <c r="C63" s="1">
         <v>28.0</v>
       </c>
-      <c r="F63" s="1">
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
         <v>429.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>192</v>
+        <v>254</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>2780.0</v>
+      <c r="A64" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="1">
+        <v>257</v>
+      </c>
+      <c r="C64" s="1">
         <v>52.0</v>
       </c>
-      <c r="F64" s="1">
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
         <v>993.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>195</v>
+        <v>258</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>2781.0</v>
+      <c r="A65" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="1">
+        <v>261</v>
+      </c>
+      <c r="C65" s="1">
         <v>37.0</v>
       </c>
-      <c r="F65" s="1">
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1">
         <v>646.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>198</v>
+        <v>262</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
